--- a/FOREX/data/FOREX_7.xlsx
+++ b/FOREX/data/FOREX_7.xlsx
@@ -164,7 +164,7 @@
     <t>Source: Currency Composition of Official Foreign Exchange Reserves (COFER), International Financial Statistics (IFS)</t>
   </si>
   <si>
-    <t>Data extracted from http://data.imf.org/ on: 4/11/2022 4:39:46 AM</t>
+    <t>Data extracted from http://data.imf.org/ on: 5/4/2022 5:08:47 AM</t>
   </si>
 </sst>
 </file>

--- a/FOREX/data/FOREX_7.xlsx
+++ b/FOREX/data/FOREX_7.xlsx
@@ -164,7 +164,7 @@
     <t>Source: Currency Composition of Official Foreign Exchange Reserves (COFER), International Financial Statistics (IFS)</t>
   </si>
   <si>
-    <t>Data extracted from http://data.imf.org/ on: 5/4/2022 5:08:47 AM</t>
+    <t>Data extracted from http://data.imf.org/ on: 5/6/2022 2:09:54 AM</t>
   </si>
 </sst>
 </file>

--- a/FOREX/data/FOREX_7.xlsx
+++ b/FOREX/data/FOREX_7.xlsx
@@ -164,7 +164,7 @@
     <t>Source: Currency Composition of Official Foreign Exchange Reserves (COFER), International Financial Statistics (IFS)</t>
   </si>
   <si>
-    <t>Data extracted from http://data.imf.org/ on: 5/6/2022 2:09:54 AM</t>
+    <t>Data extracted from http://data.imf.org/ on: 5/25/2022 2:37:06 AM</t>
   </si>
 </sst>
 </file>

--- a/FOREX/data/FOREX_7.xlsx
+++ b/FOREX/data/FOREX_7.xlsx
@@ -164,7 +164,7 @@
     <t>Source: Currency Composition of Official Foreign Exchange Reserves (COFER), International Financial Statistics (IFS)</t>
   </si>
   <si>
-    <t>Data extracted from http://data.imf.org/ on: 5/25/2022 2:37:06 AM</t>
+    <t>Data extracted from http://data.imf.org/ on: 6/20/2022 2:30:03 AM</t>
   </si>
 </sst>
 </file>

--- a/FOREX/data/FOREX_7.xlsx
+++ b/FOREX/data/FOREX_7.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>World Currency Composition of Official Foreign Exchange Reserves</t>
   </si>
@@ -92,6 +92,9 @@
     <t>2021Q4</t>
   </si>
   <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
     <t>Total Foreign Exchange Reserves</t>
   </si>
   <si>
@@ -164,7 +167,7 @@
     <t>Source: Currency Composition of Official Foreign Exchange Reserves (COFER), International Financial Statistics (IFS)</t>
   </si>
   <si>
-    <t>Data extracted from http://data.imf.org/ on: 6/20/2022 2:30:03 AM</t>
+    <t>Data extracted from http://data.imf.org/ on: 7/1/2022 2:11:27 AM</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="2" ySplit="5" state="frozen" topLeftCell="C6"/>
@@ -592,6 +595,7 @@
     <col min="24" max="24" width="14.710938" customWidth="1"/>
     <col min="25" max="25" width="14.710938" customWidth="1"/>
     <col min="26" max="26" width="14.710938" customWidth="1"/>
+    <col min="27" max="27" width="14.710938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.500000" customHeight="1">
@@ -621,6 +625,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
     <row r="2" ht="24.750000" customHeight="1">
       <c r="A2" s="1"/>
@@ -651,6 +656,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
     <row r="3" ht="19.500000" customHeight="1">
       <c r="A3" s="1"/>
@@ -681,6 +687,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
     </row>
     <row r="4" ht="13.500000" customHeight="1">
       <c r="A4" s="1"/>
@@ -709,6 +716,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
     </row>
     <row r="5" ht="15.750000" customHeight="1">
       <c r="A5" s="1"/>
@@ -782,92 +790,98 @@
       <c r="Y5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="7" t="s">
+      <c r="Z5" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" ht="15.750000" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9">
-        <v>10934908.624718061</v>
+        <v>10931208.544889472</v>
       </c>
       <c r="D6" s="10">
-        <v>10977839.087152479</v>
+        <v>10974140.030798199</v>
       </c>
       <c r="E6" s="10">
-        <v>11004391.272975843</v>
+        <v>11000711.446711836</v>
       </c>
       <c r="F6" s="10">
-        <v>10724924.376122067</v>
+        <v>10720647.437134</v>
       </c>
       <c r="G6" s="10">
-        <v>10911927.81720251</v>
+        <v>10907650.730718501</v>
       </c>
       <c r="H6" s="10">
-        <v>11132299.365805682</v>
+        <v>11128021.883904379</v>
       </c>
       <c r="I6" s="10">
-        <v>11307125.80732242</v>
+        <v>11302847.932060933</v>
       </c>
       <c r="J6" s="10">
-        <v>11456754.520967852</v>
+        <v>11452317.499934185</v>
       </c>
       <c r="K6" s="10">
-        <v>11617431.831818111</v>
+        <v>11612989.974908983</v>
       </c>
       <c r="L6" s="10">
-        <v>11480296.958073512</v>
+        <v>11475856.353625422</v>
       </c>
       <c r="M6" s="10">
-        <v>11410100.579660261</v>
+        <v>11405660.727698384</v>
       </c>
       <c r="N6" s="10">
-        <v>11435763.453382771</v>
+        <v>11432752.2634445</v>
       </c>
       <c r="O6" s="10">
-        <v>11610756.068331568</v>
+        <v>11607734.008828837</v>
       </c>
       <c r="P6" s="10">
-        <v>11738664.4693994</v>
+        <v>11735679.386046525</v>
       </c>
       <c r="Q6" s="10">
-        <v>11657419.637196656</v>
+        <v>11654349.779525729</v>
       </c>
       <c r="R6" s="10">
-        <v>11826182.6176848</v>
+        <v>11822309.790934533</v>
       </c>
       <c r="S6" s="10">
-        <v>11705061.399071001</v>
+        <v>11701084.26167855</v>
       </c>
       <c r="T6" s="10">
-        <v>12015954.008033833</v>
+        <v>12012364.784356587</v>
       </c>
       <c r="U6" s="10">
-        <v>12250992.575819721</v>
+        <v>12247356.966248129</v>
       </c>
       <c r="V6" s="10">
-        <v>12705668.60099514</v>
+        <v>12701622.979773043</v>
       </c>
       <c r="W6" s="10">
-        <v>12582140.576173013</v>
+        <v>12578754.883435301</v>
       </c>
       <c r="X6" s="10">
-        <v>12812115.488891199</v>
+        <v>12809199.465437083</v>
       </c>
       <c r="Y6" s="10">
-        <v>12831202.7879625</v>
+        <v>12828799.221518431</v>
       </c>
       <c r="Z6" s="10">
-        <v>12937269.070590256</v>
+        <v>12920959.22308198</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>12550121.339440446</v>
       </c>
     </row>
     <row r="7" ht="15.750000" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="12">
         <v>7763616.5142462524</v>
@@ -909,43 +923,46 @@
         <v>10892142.654493315</v>
       </c>
       <c r="P7" s="13">
-        <v>11016803.508767638</v>
+        <v>11016803.509047275</v>
       </c>
       <c r="Q7" s="13">
-        <v>10922515.374389287</v>
+        <v>10922515.373499576</v>
       </c>
       <c r="R7" s="13">
-        <v>11071545.128885768</v>
+        <v>11071545.128937058</v>
       </c>
       <c r="S7" s="13">
-        <v>10945584.809154408</v>
+        <v>10945584.820559068</v>
       </c>
       <c r="T7" s="13">
-        <v>11257522.427283987</v>
+        <v>11257522.430314187</v>
       </c>
       <c r="U7" s="13">
-        <v>11459203.935324194</v>
+        <v>11459203.910530344</v>
       </c>
       <c r="V7" s="13">
-        <v>11864528.99316138</v>
+        <v>11864528.9957172</v>
       </c>
       <c r="W7" s="13">
-        <v>11730642.360303083</v>
+        <v>11730642.539395772</v>
       </c>
       <c r="X7" s="13">
-        <v>11946281.741372779</v>
+        <v>11946281.742670646</v>
       </c>
       <c r="Y7" s="13">
-        <v>11970533.752592646</v>
+        <v>11970532.83249069</v>
       </c>
       <c r="Z7" s="13">
-        <v>12050534.709313976</v>
+        <v>12050410.098386655</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>11679657.532805044</v>
       </c>
     </row>
     <row r="8" ht="15.750000" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="15">
         <v>5082418.6283675767</v>
@@ -987,43 +1004,46 @@
         <v>6729866.2373817945</v>
       </c>
       <c r="P8" s="16">
-        <v>6754399.3423149483</v>
+        <v>6754399.3463149481</v>
       </c>
       <c r="Q8" s="16">
-        <v>6729797.580761319</v>
+        <v>6729797.5827613194</v>
       </c>
       <c r="R8" s="16">
-        <v>6725710.8197717536</v>
+        <v>6725710.8207717538</v>
       </c>
       <c r="S8" s="16">
-        <v>6770172.9161032382</v>
+        <v>6770172.8105824552</v>
       </c>
       <c r="T8" s="16">
-        <v>6901673.7302073687</v>
+        <v>6901673.7272073692</v>
       </c>
       <c r="U8" s="16">
-        <v>6927226.4201443298</v>
+        <v>6927226.4035326904</v>
       </c>
       <c r="V8" s="16">
         <v>6990974.5014152946</v>
       </c>
       <c r="W8" s="16">
-        <v>6971791.3276996473</v>
+        <v>6971791.4978344468</v>
       </c>
       <c r="X8" s="16">
-        <v>7070332.2078911783</v>
+        <v>7070332.2801908879</v>
       </c>
       <c r="Y8" s="16">
-        <v>7087771.50400226</v>
+        <v>7092627.4653712129</v>
       </c>
       <c r="Z8" s="16">
-        <v>7087141.3720035134</v>
+        <v>7092987.3054521102</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>6877563.7778141592</v>
       </c>
     </row>
     <row r="9" ht="15.750000" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="12">
         <v>1517958.9919441622</v>
@@ -1092,16 +1112,19 @@
         <v>2458880.6709457026</v>
       </c>
       <c r="Y9" s="13">
-        <v>2462440.6415407169</v>
+        <v>2456727.4838847443</v>
       </c>
       <c r="Z9" s="13">
-        <v>2486880.9443880771</v>
+        <v>2480554.5408801427</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>2342905.0096729016</v>
       </c>
     </row>
     <row r="10" ht="15.750000" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -1137,43 +1160,46 @@
         <v>212264.36058263746</v>
       </c>
       <c r="P10" s="16">
-        <v>212796.798349458</v>
+        <v>212796.79791152233</v>
       </c>
       <c r="Q10" s="16">
-        <v>213826.61285849637</v>
+        <v>213826.60871603776</v>
       </c>
       <c r="R10" s="16">
-        <v>214460.84733009027</v>
+        <v>214460.85105721766</v>
       </c>
       <c r="S10" s="16">
-        <v>220331.70664240088</v>
+        <v>220331.70791916735</v>
       </c>
       <c r="T10" s="16">
-        <v>233677.91808292401</v>
+        <v>233677.9224288259</v>
       </c>
       <c r="U10" s="16">
-        <v>247444.39200887992</v>
+        <v>247444.38725062608</v>
       </c>
       <c r="V10" s="16">
-        <v>271601.74827480293</v>
+        <v>271601.74945615535</v>
       </c>
       <c r="W10" s="16">
-        <v>293317.90762804588</v>
+        <v>293317.90746563644</v>
       </c>
       <c r="X10" s="16">
-        <v>314813.5743248848</v>
+        <v>314813.57761664159</v>
       </c>
       <c r="Y10" s="16">
-        <v>320150.24996593391</v>
+        <v>321264.55394193064</v>
       </c>
       <c r="Z10" s="16">
-        <v>336104.73517710209</v>
+        <v>337229.09812654956</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>336386.30815765128</v>
       </c>
     </row>
     <row r="11" ht="15.750000" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="12">
         <v>284140.58226172172</v>
@@ -1215,43 +1241,46 @@
         <v>577992.238717317</v>
       </c>
       <c r="P11" s="13">
-        <v>606520.32376637275</v>
+        <v>606520.32596764527</v>
       </c>
       <c r="Q11" s="13">
-        <v>608714.32614425744</v>
+        <v>608714.32739700424</v>
       </c>
       <c r="R11" s="13">
-        <v>649762.81054754078</v>
+        <v>649762.80587170506</v>
       </c>
       <c r="S11" s="13">
-        <v>644366.44765829295</v>
+        <v>644366.45260684472</v>
       </c>
       <c r="T11" s="13">
-        <v>643699.41403730516</v>
+        <v>643699.41572160157</v>
       </c>
       <c r="U11" s="13">
-        <v>668187.23725297581</v>
+        <v>668187.23572703858</v>
       </c>
       <c r="V11" s="13">
-        <v>715347.57859817427</v>
+        <v>715347.57997264026</v>
       </c>
       <c r="W11" s="13">
-        <v>686295.29117043386</v>
+        <v>686295.29600911064</v>
       </c>
       <c r="X11" s="13">
-        <v>672197.71101210534</v>
+        <v>672197.70708566555</v>
       </c>
       <c r="Y11" s="13">
-        <v>681422.48126142356</v>
+        <v>679680.78377089952</v>
       </c>
       <c r="Z11" s="13">
-        <v>671770.75484363455</v>
+        <v>664583.7660971405</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>625675.78759749071</v>
       </c>
     </row>
     <row r="12" ht="15.750000" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="15">
         <v>361235.5460360357</v>
@@ -1320,16 +1349,19 @@
         <v>560903.23132920847</v>
       </c>
       <c r="Y12" s="16">
-        <v>561659.18526086037</v>
+        <v>558599.83062431798</v>
       </c>
       <c r="Z12" s="16">
-        <v>576219.84635003854</v>
+        <v>578770.4553299963</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>580620.46943411476</v>
       </c>
     </row>
     <row r="13" ht="15.750000" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="12">
         <v>133669.61936668589</v>
@@ -1392,22 +1424,25 @@
         <v>216870.64779270973</v>
       </c>
       <c r="W13" s="13">
-        <v>214890.46203595208</v>
+        <v>214890.46631757208</v>
       </c>
       <c r="X13" s="13">
-        <v>218444.01765278238</v>
+        <v>218444.01758533239</v>
       </c>
       <c r="Y13" s="13">
-        <v>214258.11461546546</v>
+        <v>214239.36766996325</v>
       </c>
       <c r="Z13" s="13">
-        <v>218016.7642364252</v>
+        <v>221300.70598330133</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>225484.07944294924</v>
       </c>
     </row>
     <row r="14" ht="15.750000" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="15">
         <v>140377.59167741303</v>
@@ -1449,7 +1484,7 @@
         <v>208644.79222581987</v>
       </c>
       <c r="P14" s="16">
-        <v>209849.28999516671</v>
+        <v>209849.28451146663</v>
       </c>
       <c r="Q14" s="16">
         <v>205441.89449428124</v>
@@ -1476,16 +1511,19 @@
         <v>270007.45967598457</v>
       </c>
       <c r="Y14" s="16">
-        <v>264291.96680793475</v>
+        <v>264266.13850374072</v>
       </c>
       <c r="Z14" s="16">
-        <v>286929.95385213743</v>
+        <v>286903.99543059675</v>
+      </c>
+      <c r="AA14" s="16">
+        <v>287336.88370940136</v>
       </c>
     </row>
     <row r="15" ht="15.750000" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12">
         <v>14817.730513948265</v>
@@ -1536,7 +1574,7 @@
         <v>16564.395486596739</v>
       </c>
       <c r="S15" s="13">
-        <v>15589.513238756999</v>
+        <v>15589.62393888031</v>
       </c>
       <c r="T15" s="13">
         <v>17219.459680220967</v>
@@ -1554,16 +1592,19 @@
         <v>23130.550308588383</v>
       </c>
       <c r="Y15" s="13">
-        <v>23772.735863779926</v>
+        <v>23768.048291318406</v>
       </c>
       <c r="Z15" s="13">
-        <v>24505.458680178286</v>
+        <v>21195.880877658736</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>26312.365682286872</v>
       </c>
     </row>
     <row r="16" ht="15.750000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="15">
         <v>228997.82407870842</v>
@@ -1620,7 +1661,7 @@
         <v>278660.49914943363</v>
       </c>
       <c r="U16" s="16">
-        <v>283154.12262948434</v>
+        <v>283154.1207314643</v>
       </c>
       <c r="V16" s="16">
         <v>314627.30932405364</v>
@@ -1629,175 +1670,184 @@
         <v>335819.9705784641</v>
       </c>
       <c r="X16" s="16">
-        <v>357572.31823234388</v>
+        <v>357572.24793263536</v>
       </c>
       <c r="Y16" s="16">
-        <v>354766.87327427242</v>
+        <v>359359.16043255979</v>
       </c>
       <c r="Z16" s="16">
-        <v>362964.87978286808</v>
+        <v>366884.35020915844</v>
+      </c>
+      <c r="AA16" s="16">
+        <v>377372.85129409021</v>
       </c>
     </row>
     <row r="17" ht="15.750000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="12">
-        <v>3171292.1104718088</v>
+        <v>3167592.0306432205</v>
       </c>
       <c r="D17" s="13">
-        <v>2923783.1617616005</v>
+        <v>2920084.1054073214</v>
       </c>
       <c r="E17" s="13">
-        <v>2652770.9627666036</v>
+        <v>2649091.1365025956</v>
       </c>
       <c r="F17" s="13">
-        <v>2307079.1356957108</v>
+        <v>2302802.1967076445</v>
       </c>
       <c r="G17" s="13">
-        <v>2079897.0872933106</v>
+        <v>2075620.0008093007</v>
       </c>
       <c r="H17" s="13">
-        <v>1876533.5774836191</v>
+        <v>1872256.0955823164</v>
       </c>
       <c r="I17" s="13">
-        <v>1665480.0254728594</v>
+        <v>1661202.1502113731</v>
       </c>
       <c r="J17" s="13">
-        <v>1444063.5629359141</v>
+        <v>1439626.541902248</v>
       </c>
       <c r="K17" s="13">
-        <v>1218318.9170275116</v>
+        <v>1213877.0601183828</v>
       </c>
       <c r="L17" s="13">
-        <v>970485.31564430473</v>
+        <v>966044.71119621489</v>
       </c>
       <c r="M17" s="13">
-        <v>704955.28239641606</v>
+        <v>700515.4304345391</v>
       </c>
       <c r="N17" s="13">
-        <v>709540.94455734175</v>
+        <v>706529.75461907033</v>
       </c>
       <c r="O17" s="13">
-        <v>718613.41383825394</v>
+        <v>715591.35433552344</v>
       </c>
       <c r="P17" s="13">
-        <v>721860.9606317617</v>
+        <v>718875.87699925003</v>
       </c>
       <c r="Q17" s="13">
-        <v>734904.26280736912</v>
+        <v>731834.40602615231</v>
       </c>
       <c r="R17" s="13">
-        <v>754637.48879903322</v>
+        <v>750764.66199747461</v>
       </c>
       <c r="S17" s="13">
-        <v>759476.58991659177</v>
+        <v>755499.44111948239</v>
       </c>
       <c r="T17" s="13">
-        <v>758431.58074984374</v>
+        <v>754842.35404239839</v>
       </c>
       <c r="U17" s="13">
-        <v>791788.6404955273</v>
+        <v>788153.05571778514</v>
       </c>
       <c r="V17" s="13">
-        <v>841139.60783375974</v>
+        <v>837093.98405584379</v>
       </c>
       <c r="W17" s="13">
-        <v>851498.21586992964</v>
+        <v>848112.34403952933</v>
       </c>
       <c r="X17" s="13">
-        <v>865833.74751841987</v>
+        <v>862917.72276643559</v>
       </c>
       <c r="Y17" s="13">
-        <v>860669.03536985349</v>
+        <v>858266.3890277422</v>
       </c>
       <c r="Z17" s="13">
-        <v>886734.36127627932</v>
+        <v>870549.1246953262</v>
+      </c>
+      <c r="AA17" s="13">
+        <v>870463.80663540238</v>
       </c>
     </row>
     <row r="18" ht="15.750000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="15">
-        <v>70.998458063900145</v>
+        <v>71.022490169907854</v>
       </c>
       <c r="D18" s="16">
-        <v>73.366496461190195</v>
+        <v>73.391226126035406</v>
       </c>
       <c r="E18" s="16">
-        <v>75.893523803709385</v>
+        <v>75.918910796497428</v>
       </c>
       <c r="F18" s="16">
-        <v>78.488620946995354</v>
+        <v>78.519933518835472</v>
       </c>
       <c r="G18" s="16">
-        <v>80.939233450441449</v>
+        <v>80.97097118297097</v>
       </c>
       <c r="H18" s="16">
-        <v>83.14334248639021</v>
+        <v>83.175301818103392</v>
       </c>
       <c r="I18" s="16">
-        <v>85.27052715382095</v>
+        <v>85.302800142083541</v>
       </c>
       <c r="J18" s="16">
-        <v>87.395526714890963</v>
+        <v>87.42938674280974</v>
       </c>
       <c r="K18" s="16">
-        <v>89.513009977895891</v>
+        <v>89.547247842794278</v>
       </c>
       <c r="L18" s="16">
-        <v>91.546513829837721</v>
+        <v>91.581937927525345</v>
       </c>
       <c r="M18" s="16">
-        <v>93.821655843655975</v>
+        <v>93.858177556225627</v>
       </c>
       <c r="N18" s="16">
-        <v>93.795421289975565</v>
+        <v>93.820125387671055</v>
       </c>
       <c r="O18" s="16">
-        <v>93.810795700046796</v>
+        <v>93.835219227187281</v>
       </c>
       <c r="P18" s="16">
-        <v>93.850569947599027</v>
+        <v>93.874441748519672</v>
       </c>
       <c r="Q18" s="16">
-        <v>93.695823898605951</v>
+        <v>93.720504190531216</v>
       </c>
       <c r="R18" s="16">
-        <v>93.618925792076368</v>
+        <v>93.649594070245328</v>
       </c>
       <c r="S18" s="16">
-        <v>93.511553984869579</v>
+        <v>93.543338170858505</v>
       </c>
       <c r="T18" s="16">
-        <v>93.68812846451678</v>
+        <v>93.716121949398243</v>
       </c>
       <c r="U18" s="16">
-        <v>93.536942940784144</v>
+        <v>93.564709039755954</v>
       </c>
       <c r="V18" s="16">
-        <v>93.37980838121436</v>
+        <v>93.409551004711048</v>
       </c>
       <c r="W18" s="16">
-        <v>93.232485277724336</v>
+        <v>93.257581120716566</v>
       </c>
       <c r="X18" s="16">
-        <v>93.242070380421211</v>
+        <v>93.263297014814725</v>
       </c>
       <c r="Y18" s="16">
-        <v>93.292374459413239</v>
+        <v>93.309846274715042</v>
       </c>
       <c r="Z18" s="16">
-        <v>93.145892255637975</v>
+        <v>93.262503892588882</v>
+      </c>
+      <c r="AA18" s="16">
+        <v>93.064100472878678</v>
       </c>
     </row>
     <row r="19" ht="15.750000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="12">
         <v>65.464575936244771</v>
@@ -1839,43 +1889,46 @@
         <v>61.786431291418467</v>
       </c>
       <c r="P19" s="13">
-        <v>61.30997377723503</v>
+        <v>61.309973811986985</v>
       </c>
       <c r="Q19" s="13">
-        <v>61.613990459936559</v>
+        <v>61.613990483266221</v>
       </c>
       <c r="R19" s="13">
-        <v>60.747716253482174</v>
+        <v>60.74771626223292</v>
       </c>
       <c r="S19" s="13">
-        <v>61.8530031437056</v>
+        <v>61.853002115209542</v>
       </c>
       <c r="T19" s="13">
-        <v>61.307217238851017</v>
+        <v>61.307217195700048</v>
       </c>
       <c r="U19" s="13">
-        <v>60.451201141384971</v>
+        <v>60.451201127217672</v>
       </c>
       <c r="V19" s="13">
-        <v>58.92332098008135</v>
+        <v>58.923320967388278</v>
       </c>
       <c r="W19" s="13">
-        <v>59.432306548637435</v>
+        <v>59.432307091624615</v>
       </c>
       <c r="X19" s="13">
-        <v>59.184375196886222</v>
+        <v>59.184375795663115</v>
       </c>
       <c r="Y19" s="13">
-        <v>59.210154287958552</v>
+        <v>59.250724797481389</v>
       </c>
       <c r="Z19" s="13">
-        <v>58.811841490533965</v>
+        <v>58.860961971756808</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>58.884978078311931</v>
       </c>
     </row>
     <row r="20" ht="15.750000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="15">
         <v>19.552214991025181</v>
@@ -1917,43 +1970,46 @@
         <v>20.280861097951409</v>
       </c>
       <c r="P20" s="16">
-        <v>20.560253347342385</v>
+        <v>20.56025334682051</v>
       </c>
       <c r="Q20" s="16">
-        <v>20.260238692507134</v>
+        <v>20.260238694157461</v>
       </c>
       <c r="R20" s="16">
-        <v>20.588446835277903</v>
+        <v>20.588446835182523</v>
       </c>
       <c r="S20" s="16">
-        <v>20.075659580507711</v>
+        <v>20.075659559590044</v>
       </c>
       <c r="T20" s="16">
-        <v>20.185901068116635</v>
+        <v>20.185901062683175</v>
       </c>
       <c r="U20" s="16">
-        <v>20.591649549178953</v>
+        <v>20.591649593732335</v>
       </c>
       <c r="V20" s="16">
-        <v>21.293839049501642</v>
+        <v>21.293839044914591</v>
       </c>
       <c r="W20" s="16">
-        <v>20.500116754328797</v>
+        <v>20.500116441351825</v>
       </c>
       <c r="X20" s="16">
-        <v>20.582811657873606</v>
+        <v>20.58281165563745</v>
       </c>
       <c r="Y20" s="16">
-        <v>20.570850827828689</v>
+        <v>20.523125563940138</v>
       </c>
       <c r="Z20" s="16">
-        <v>20.637100380831587</v>
+        <v>20.584814297832459</v>
+      </c>
+      <c r="AA20" s="16">
+        <v>20.059706400571297</v>
       </c>
     </row>
     <row r="21" ht="15.750000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
@@ -1989,43 +2045,46 @@
         <v>1.9487842504070807</v>
       </c>
       <c r="P21" s="13">
-        <v>1.9315657048807788</v>
+        <v>1.9315657008565894</v>
       </c>
       <c r="Q21" s="13">
-        <v>1.9576682250305562</v>
+        <v>1.9576681872641544</v>
       </c>
       <c r="R21" s="13">
-        <v>1.9370453250518744</v>
+        <v>1.9370453587069225</v>
       </c>
       <c r="S21" s="13">
-        <v>2.0129733630872337</v>
+        <v>2.0129733726545043</v>
       </c>
       <c r="T21" s="13">
-        <v>2.0757490788255231</v>
+        <v>2.0757491168712168</v>
       </c>
       <c r="U21" s="13">
-        <v>2.1593506268450873</v>
+        <v>2.1593505899937693</v>
       </c>
       <c r="V21" s="13">
-        <v>2.2891911548393704</v>
+        <v>2.2891911643032512</v>
       </c>
       <c r="W21" s="13">
-        <v>2.5004419930202992</v>
+        <v>2.500441953461356</v>
       </c>
       <c r="X21" s="13">
-        <v>2.6352431755783181</v>
+        <v>2.6352432028466755</v>
       </c>
       <c r="Y21" s="13">
-        <v>2.6744860052426147</v>
+        <v>2.68379493576048</v>
       </c>
       <c r="Z21" s="13">
-        <v>2.7891271489996492</v>
+        <v>2.7984864861296197</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>2.8801042086450894</v>
       </c>
     </row>
     <row r="22" ht="15.750000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="15">
         <v>3.6598997611528494</v>
@@ -2067,43 +2126,46 @@
         <v>5.3065063234264471</v>
       </c>
       <c r="P22" s="16">
-        <v>5.5054111048062015</v>
+        <v>5.5054111246475035</v>
       </c>
       <c r="Q22" s="16">
-        <v>5.5730232943553313</v>
+        <v>5.5730233062786896</v>
       </c>
       <c r="R22" s="16">
-        <v>5.8687636005953978</v>
+        <v>5.8687635583353002</v>
       </c>
       <c r="S22" s="16">
-        <v>5.8869988117891427</v>
+        <v>5.8869988508657167</v>
       </c>
       <c r="T22" s="16">
-        <v>5.7179492041447819</v>
+        <v>5.7179492175671944</v>
       </c>
       <c r="U22" s="16">
-        <v>5.8310092134168139</v>
+        <v>5.8310092127168911</v>
       </c>
       <c r="V22" s="16">
-        <v>6.0292960555829476</v>
+        <v>6.0292960658688015</v>
       </c>
       <c r="W22" s="16">
-        <v>5.8504493623715081</v>
+        <v>5.8504493143003966</v>
       </c>
       <c r="X22" s="16">
-        <v>5.6268362454915728</v>
+        <v>5.6268362120127984</v>
       </c>
       <c r="Y22" s="16">
-        <v>5.6924987251620021</v>
+        <v>5.6779492883231955</v>
       </c>
       <c r="Z22" s="16">
-        <v>5.5746136669306159</v>
+        <v>5.515030282547122</v>
+      </c>
+      <c r="AA22" s="16">
+        <v>5.3569703207489967</v>
       </c>
     </row>
     <row r="23" ht="15.750000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="12">
         <v>4.6529287655201381</v>
@@ -2145,43 +2207,46 @@
         <v>4.5533177307591171</v>
       </c>
       <c r="P23" s="13">
-        <v>4.5172368111900809</v>
+        <v>4.5172368110754215</v>
       </c>
       <c r="Q23" s="13">
-        <v>4.5086924685683556</v>
+        <v>4.5086924689356183</v>
       </c>
       <c r="R23" s="13">
-        <v>4.6381808263103119</v>
+        <v>4.6381808262888251</v>
       </c>
       <c r="S23" s="13">
-        <v>4.4405543815545752</v>
+        <v>4.4405543769277767</v>
       </c>
       <c r="T23" s="13">
-        <v>4.4801700385314822</v>
+        <v>4.48017003732555</v>
       </c>
       <c r="U23" s="13">
-        <v>4.5696229372015358</v>
+        <v>4.5696229470886571</v>
       </c>
       <c r="V23" s="13">
-        <v>4.731650565649165</v>
+        <v>4.7316505646298888</v>
       </c>
       <c r="W23" s="13">
-        <v>4.7250714768961561</v>
+        <v>4.7250714047580997</v>
       </c>
       <c r="X23" s="13">
-        <v>4.695211811275712</v>
+        <v>4.6952118107656151</v>
       </c>
       <c r="Y23" s="13">
-        <v>4.6920145489687375</v>
+        <v>4.6664575290095174</v>
       </c>
       <c r="Z23" s="13">
-        <v>4.7816952546070226</v>
+        <v>4.8029108603323296</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>4.9712114229660127</v>
       </c>
     </row>
     <row r="24" ht="15.750000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="15">
         <v>1.7217442299140084</v>
@@ -2223,43 +2288,46 @@
         <v>1.6751710972809413</v>
       </c>
       <c r="P24" s="16">
-        <v>1.6994116184143253</v>
+        <v>1.6994116183711896</v>
       </c>
       <c r="Q24" s="16">
-        <v>1.6753605097775544</v>
+        <v>1.6753605099140232</v>
       </c>
       <c r="R24" s="16">
-        <v>1.696977693105016</v>
+        <v>1.6969776930971543</v>
       </c>
       <c r="S24" s="16">
-        <v>1.5532053762574822</v>
+        <v>1.553205374639133</v>
       </c>
       <c r="T24" s="16">
-        <v>1.6907474350452665</v>
+        <v>1.6907474345901663</v>
       </c>
       <c r="U24" s="16">
-        <v>1.7410188170782979</v>
+        <v>1.7410188208452753</v>
       </c>
       <c r="V24" s="16">
-        <v>1.8278909168472868</v>
+        <v>1.8278909164535284</v>
       </c>
       <c r="W24" s="16">
-        <v>1.8318729310438202</v>
+        <v>1.831872939575915</v>
       </c>
       <c r="X24" s="16">
-        <v>1.8285523678573514</v>
+        <v>1.8285523670940833</v>
       </c>
       <c r="Y24" s="16">
-        <v>1.7898793741679246</v>
+        <v>1.7897229026302819</v>
       </c>
       <c r="Z24" s="16">
-        <v>1.8091874717220464</v>
+        <v>1.836457881320817</v>
+      </c>
+      <c r="AA24" s="16">
+        <v>1.9305709847195824</v>
       </c>
     </row>
     <row r="25" ht="15.750000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="12">
         <v>1.8081469044719027</v>
@@ -2301,43 +2369,46 @@
         <v>1.9155532464473188</v>
       </c>
       <c r="P25" s="13">
-        <v>1.9048110445843911</v>
+        <v>1.9048109947602598</v>
       </c>
       <c r="Q25" s="13">
-        <v>1.8809027724144372</v>
+        <v>1.880902772567649</v>
       </c>
       <c r="R25" s="13">
-        <v>1.8605244300644901</v>
+        <v>1.8605244300558705</v>
       </c>
       <c r="S25" s="13">
-        <v>1.7839864353372017</v>
+        <v>1.7839864334783917</v>
       </c>
       <c r="T25" s="13">
-        <v>1.9139792886829963</v>
+        <v>1.9139792881678084</v>
       </c>
       <c r="U25" s="13">
-        <v>2.0167447601649466</v>
+        <v>2.0167447645285019</v>
       </c>
       <c r="V25" s="13">
-        <v>2.0781872008697069</v>
+        <v>2.0781872004220303</v>
       </c>
       <c r="W25" s="13">
-        <v>2.1312318228125595</v>
+        <v>2.1312317902748674</v>
       </c>
       <c r="X25" s="13">
-        <v>2.2601799080368692</v>
+        <v>2.2601799077913189</v>
       </c>
       <c r="Y25" s="13">
-        <v>2.20785448895036</v>
+        <v>2.2076388929527315</v>
       </c>
       <c r="Z25" s="13">
-        <v>2.3810557852703953</v>
+        <v>2.3808649920471034</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>2.4601481927218214</v>
       </c>
     </row>
     <row r="26" ht="15.750000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="15">
         <v>0.19086118546372943</v>
@@ -2379,43 +2450,46 @@
         <v>0.13546738630935326</v>
       </c>
       <c r="P26" s="16">
-        <v>0.13632417109179648</v>
+        <v>0.13632417108833619</v>
       </c>
       <c r="Q26" s="16">
-        <v>0.14361579323262955</v>
+        <v>0.14361579324432802</v>
       </c>
       <c r="R26" s="16">
-        <v>0.14961231963350871</v>
+        <v>0.1496123196328156</v>
       </c>
       <c r="S26" s="16">
-        <v>0.1424274126104127</v>
+        <v>0.14242842382983822</v>
       </c>
       <c r="T26" s="16">
-        <v>0.1529595858364669</v>
+        <v>0.15295958579529462</v>
       </c>
       <c r="U26" s="16">
-        <v>0.16842744694013595</v>
+        <v>0.16842744730455611</v>
       </c>
       <c r="V26" s="16">
-        <v>0.17479264273511053</v>
+        <v>0.17479264269745728</v>
       </c>
       <c r="W26" s="16">
-        <v>0.16575053157332442</v>
+        <v>0.16575052904279736</v>
       </c>
       <c r="X26" s="16">
-        <v>0.19362133598843442</v>
+        <v>0.19362133596739903</v>
       </c>
       <c r="Y26" s="16">
-        <v>0.19859378332759051</v>
+        <v>0.1985546393290584</v>
       </c>
       <c r="Z26" s="16">
-        <v>0.2033557785716992</v>
+        <v>0.17589344017840944</v>
+      </c>
+      <c r="AA26" s="16">
+        <v>0.22528370894765065</v>
       </c>
     </row>
     <row r="27" ht="15.750000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="12">
         <v>2.9496282262074249</v>
@@ -2457,115 +2531,121 @@
         <v>2.3979075759998749</v>
       </c>
       <c r="P27" s="13">
-        <v>2.4350124204550152</v>
+        <v>2.4350124203932082</v>
       </c>
       <c r="Q27" s="13">
-        <v>2.3865077841774567</v>
+        <v>2.3865077843718536</v>
       </c>
       <c r="R27" s="13">
-        <v>2.5127327164793116</v>
+        <v>2.5127327164676707</v>
       </c>
       <c r="S27" s="13">
-        <v>2.2511914951506515</v>
+        <v>2.2511914928050416</v>
       </c>
       <c r="T27" s="13">
-        <v>2.4753270619658347</v>
+        <v>2.4753270612995482</v>
       </c>
       <c r="U27" s="13">
-        <v>2.4709755077892641</v>
+        <v>2.4709754965723412</v>
       </c>
       <c r="V27" s="13">
-        <v>2.6518314338934341</v>
+        <v>2.6518314333221848</v>
       </c>
       <c r="W27" s="13">
-        <v>2.862758579316091</v>
+        <v>2.8627585356101193</v>
       </c>
       <c r="X27" s="13">
-        <v>2.9931683010119121</v>
+        <v>2.9931677122215472</v>
       </c>
       <c r="Y27" s="13">
-        <v>2.9636679583935428</v>
+        <v>3.0020314505731864</v>
       </c>
       <c r="Z27" s="13">
-        <v>3.012023022533008</v>
+        <v>3.0445797878553367</v>
+      </c>
+      <c r="AA27" s="13">
+        <v>3.2310266823676157</v>
       </c>
     </row>
     <row r="28" ht="15.750000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="15">
-        <v>29.001541936099855</v>
+        <v>28.977509830092156</v>
       </c>
       <c r="D28" s="16">
-        <v>26.633503538809798</v>
+        <v>26.608773873964591</v>
       </c>
       <c r="E28" s="16">
-        <v>24.106476196290615</v>
+        <v>24.081089203502572</v>
       </c>
       <c r="F28" s="16">
-        <v>21.511379053004642</v>
+        <v>21.480066481164531</v>
       </c>
       <c r="G28" s="16">
-        <v>19.060766549558551</v>
+        <v>19.02902881702903</v>
       </c>
       <c r="H28" s="16">
-        <v>16.856657513609797</v>
+        <v>16.824698181896604</v>
       </c>
       <c r="I28" s="16">
-        <v>14.729472846179048</v>
+        <v>14.697199857916459</v>
       </c>
       <c r="J28" s="16">
-        <v>12.604473285109034</v>
+        <v>12.570613257190269</v>
       </c>
       <c r="K28" s="16">
-        <v>10.486990022104107</v>
+        <v>10.452752157205722</v>
       </c>
       <c r="L28" s="16">
-        <v>8.4534861701622752</v>
+        <v>8.4180620724746582</v>
       </c>
       <c r="M28" s="16">
-        <v>6.1783441563440293</v>
+        <v>6.141822443774374</v>
       </c>
       <c r="N28" s="16">
-        <v>6.2045787100244283</v>
+        <v>6.1798746123289527</v>
       </c>
       <c r="O28" s="16">
-        <v>6.1892042999531949</v>
+        <v>6.1647807728127209</v>
       </c>
       <c r="P28" s="16">
-        <v>6.1494300524009713</v>
+        <v>6.1255582514803377</v>
       </c>
       <c r="Q28" s="16">
-        <v>6.304176101394054</v>
+        <v>6.2794958094687825</v>
       </c>
       <c r="R28" s="16">
-        <v>6.3810742079236373</v>
+        <v>6.3504059297546798</v>
       </c>
       <c r="S28" s="16">
-        <v>6.4884460151304237</v>
+        <v>6.4566618291414999</v>
       </c>
       <c r="T28" s="16">
-        <v>6.3118715354832293</v>
+        <v>6.2838780506017562</v>
       </c>
       <c r="U28" s="16">
-        <v>6.4630570592158598</v>
+        <v>6.4352909602440445</v>
       </c>
       <c r="V28" s="16">
-        <v>6.6201916187856469</v>
+        <v>6.5904489952889573</v>
       </c>
       <c r="W28" s="16">
-        <v>6.7675147222756724</v>
+        <v>6.7424188792834387</v>
       </c>
       <c r="X28" s="16">
-        <v>6.7579296195787872</v>
+        <v>6.7367029851852696</v>
       </c>
       <c r="Y28" s="16">
-        <v>6.7076255405867631</v>
+        <v>6.6901537252849517</v>
       </c>
       <c r="Z28" s="16">
-        <v>6.8541077443620217</v>
+        <v>6.7374961074111175</v>
+      </c>
+      <c r="AA28" s="16">
+        <v>6.9358995271213235</v>
       </c>
     </row>
     <row r="29" ht="13.500000" customHeight="1">
@@ -2595,11 +2675,12 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
     </row>
     <row r="30" ht="15.750000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -2625,11 +2706,12 @@
       <c r="X30" s="18"/>
       <c r="Y30" s="18"/>
       <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
     </row>
     <row r="31" ht="15.750000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -2655,6 +2737,7 @@
       <c r="X31" s="19"/>
       <c r="Y31" s="19"/>
       <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/FOREX/data/FOREX_7.xlsx
+++ b/FOREX/data/FOREX_7.xlsx
@@ -167,7 +167,7 @@
     <t>Source: Currency Composition of Official Foreign Exchange Reserves (COFER), International Financial Statistics (IFS)</t>
   </si>
   <si>
-    <t>Data extracted from http://data.imf.org/ on: 7/1/2022 2:11:27 AM</t>
+    <t>Data extracted from http://data.imf.org/ on: 9/30/2022 2:59:02 AM</t>
   </si>
 </sst>
 </file>

--- a/FOREX/data/FOREX_7.xlsx
+++ b/FOREX/data/FOREX_7.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tedc8\Desktop\FOREX\FOREX\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18060" windowHeight="10365" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21990" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>World Currency Composition of Official Foreign Exchange Reserves</t>
   </si>
@@ -95,6 +102,12 @@
     <t>2022Q1</t>
   </si>
   <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
+    <t>2022Q3</t>
+  </si>
+  <si>
     <t>Total Foreign Exchange Reserves</t>
   </si>
   <si>
@@ -167,45 +180,48 @@
     <t>Source: Currency Composition of Official Foreign Exchange Reserves (COFER), International Financial Statistics (IFS)</t>
   </si>
   <si>
-    <t>Data extracted from http://data.imf.org/ on: 9/30/2022 2:59:02 AM</t>
+    <t>Data extracted from http://data.imf.org/ on: 1/5/2023 9:33:07 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts>
-    <numFmt numFmtId="164" formatCode="#,##0.00"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.000000"/>
+      <sz val="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="16.000000"/>
+      <sz val="16"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12.000000"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="9.000000"/>
+      <sz val="9"/>
       <name val="Times"/>
     </font>
     <font>
-      <sz val="9.000000"/>
+      <sz val="9"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <i/>
-      <sz val="9.000000"/>
+      <sz val="9"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -351,90 +367,112 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -443,10 +481,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -556,49 +594,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
-      <pane xSplit="2" ySplit="5" state="frozen" topLeftCell="C6"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.500000" defaultColWidth="10.142857" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.421875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.710938" customWidth="1"/>
-    <col min="4" max="4" width="14.710938" customWidth="1"/>
-    <col min="5" max="5" width="14.710938" customWidth="1"/>
-    <col min="6" max="6" width="14.710938" customWidth="1"/>
-    <col min="7" max="7" width="14.710938" customWidth="1"/>
-    <col min="8" max="8" width="14.710938" customWidth="1"/>
-    <col min="9" max="9" width="14.710938" customWidth="1"/>
-    <col min="10" max="10" width="14.710938" customWidth="1"/>
-    <col min="11" max="11" width="14.710938" customWidth="1"/>
-    <col min="12" max="12" width="14.710938" customWidth="1"/>
-    <col min="13" max="13" width="14.710938" customWidth="1"/>
-    <col min="14" max="14" width="14.710938" customWidth="1"/>
-    <col min="15" max="15" width="14.710938" customWidth="1"/>
-    <col min="16" max="16" width="14.710938" customWidth="1"/>
-    <col min="17" max="17" width="14.710938" customWidth="1"/>
-    <col min="18" max="18" width="14.710938" customWidth="1"/>
-    <col min="19" max="19" width="14.710938" customWidth="1"/>
-    <col min="20" max="20" width="14.710938" customWidth="1"/>
-    <col min="21" max="21" width="14.710938" customWidth="1"/>
-    <col min="22" max="22" width="14.710938" customWidth="1"/>
-    <col min="23" max="23" width="14.710938" customWidth="1"/>
-    <col min="24" max="24" width="14.710938" customWidth="1"/>
-    <col min="25" max="25" width="14.710938" customWidth="1"/>
-    <col min="26" max="26" width="14.710938" customWidth="1"/>
-    <col min="27" max="27" width="14.710938" customWidth="1"/>
+    <col min="3" max="29" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.500000" customHeight="1">
+    <row r="1" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -626,18 +645,20 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
-    </row>
-    <row r="2" ht="24.750000" customHeight="1">
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+    </row>
+    <row r="2" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -657,8 +678,10 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-    </row>
-    <row r="3" ht="19.500000" customHeight="1">
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -688,8 +711,10 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-    </row>
-    <row r="4" ht="13.500000" customHeight="1">
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -717,8 +742,10 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-    </row>
-    <row r="5" ht="15.750000" customHeight="1">
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
@@ -793,95 +820,107 @@
       <c r="Z5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="7" t="s">
+      <c r="AA5" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" ht="15.750000" customHeight="1">
+      <c r="AB5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="9">
-        <v>10931208.544889472</v>
+        <v>10931146.598643599</v>
       </c>
       <c r="D6" s="10">
-        <v>10974140.030798199</v>
+        <v>10974021.341162572</v>
       </c>
       <c r="E6" s="10">
-        <v>11000711.446711836</v>
+        <v>11000591.837263783</v>
       </c>
       <c r="F6" s="10">
-        <v>10720647.437134</v>
+        <v>10720510.90204015</v>
       </c>
       <c r="G6" s="10">
-        <v>10907650.730718501</v>
+        <v>10907538.897543242</v>
       </c>
       <c r="H6" s="10">
-        <v>11128021.883904379</v>
+        <v>11127910.018711699</v>
       </c>
       <c r="I6" s="10">
-        <v>11302847.932060933</v>
+        <v>11302731.891765965</v>
       </c>
       <c r="J6" s="10">
-        <v>11452317.499934185</v>
+        <v>11452317.658658916</v>
       </c>
       <c r="K6" s="10">
-        <v>11612989.974908983</v>
+        <v>11612870.488128291</v>
       </c>
       <c r="L6" s="10">
         <v>11475856.353625422</v>
       </c>
       <c r="M6" s="10">
-        <v>11405660.727698384</v>
+        <v>11405518.344698373</v>
       </c>
       <c r="N6" s="10">
-        <v>11432752.2634445</v>
+        <v>11432600.207550099</v>
       </c>
       <c r="O6" s="10">
-        <v>11607734.008828837</v>
+        <v>11607622.587155374</v>
       </c>
       <c r="P6" s="10">
-        <v>11735679.386046525</v>
+        <v>11735852.5199665</v>
       </c>
       <c r="Q6" s="10">
-        <v>11654349.779525729</v>
+        <v>11654623.4234457</v>
       </c>
       <c r="R6" s="10">
-        <v>11822309.790934533</v>
+        <v>11822311.645240862</v>
       </c>
       <c r="S6" s="10">
-        <v>11701084.26167855</v>
+        <v>11701085.863798343</v>
       </c>
       <c r="T6" s="10">
-        <v>12012364.784356587</v>
+        <v>12012349.108924884</v>
       </c>
       <c r="U6" s="10">
-        <v>12247356.966248129</v>
+        <v>12247341.004576409</v>
       </c>
       <c r="V6" s="10">
-        <v>12701622.979773043</v>
+        <v>12700514.469966067</v>
       </c>
       <c r="W6" s="10">
-        <v>12578754.883435301</v>
+        <v>12575770.352227109</v>
       </c>
       <c r="X6" s="10">
-        <v>12809199.465437083</v>
+        <v>12804202.321536826</v>
       </c>
       <c r="Y6" s="10">
-        <v>12828799.221518431</v>
+        <v>12823882.997035099</v>
       </c>
       <c r="Z6" s="10">
-        <v>12920959.22308198</v>
+        <v>12918499.163845584</v>
       </c>
       <c r="AA6" s="10">
-        <v>12550121.339440446</v>
-      </c>
-    </row>
-    <row r="7" ht="15.750000" customHeight="1">
+        <v>12541983.27640014</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>12032444.889258448</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>11598629.430335589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="12">
         <v>7763616.5142462524</v>
@@ -932,37 +971,43 @@
         <v>11071545.128937058</v>
       </c>
       <c r="S7" s="13">
-        <v>10945584.820559068</v>
+        <v>10945583.814491991</v>
       </c>
       <c r="T7" s="13">
-        <v>11257522.430314187</v>
+        <v>11257521.496221613</v>
       </c>
       <c r="U7" s="13">
-        <v>11459203.910530344</v>
+        <v>11459144.321868809</v>
       </c>
       <c r="V7" s="13">
-        <v>11864528.9957172</v>
+        <v>11864417.271893742</v>
       </c>
       <c r="W7" s="13">
-        <v>11730642.539395772</v>
+        <v>11730601.30789211</v>
       </c>
       <c r="X7" s="13">
-        <v>11946281.742670646</v>
+        <v>11946224.746993165</v>
       </c>
       <c r="Y7" s="13">
-        <v>11970532.83249069</v>
+        <v>11970211.663637189</v>
       </c>
       <c r="Z7" s="13">
-        <v>12050410.098386655</v>
+        <v>12048127.998500742</v>
       </c>
       <c r="AA7" s="13">
-        <v>11679657.532805044</v>
-      </c>
-    </row>
-    <row r="8" ht="15.750000" customHeight="1">
+        <v>11680064.850986976</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>11172446.627613485</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>10773070.783931095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="15">
         <v>5082418.6283675767</v>
@@ -1013,37 +1058,43 @@
         <v>6725710.8207717538</v>
       </c>
       <c r="S8" s="16">
-        <v>6770172.8105824552</v>
+        <v>6770171.8045153767</v>
       </c>
       <c r="T8" s="16">
-        <v>6901673.7272073692</v>
+        <v>6901672.7401000895</v>
       </c>
       <c r="U8" s="16">
-        <v>6927226.4035326904</v>
+        <v>6927166.8761778409</v>
       </c>
       <c r="V8" s="16">
-        <v>6990974.5014152946</v>
+        <v>6990862.7492345544</v>
       </c>
       <c r="W8" s="16">
-        <v>6971791.4978344468</v>
+        <v>6971750.3034115369</v>
       </c>
       <c r="X8" s="16">
-        <v>7070332.2801908879</v>
+        <v>7070275.2845134074</v>
       </c>
       <c r="Y8" s="16">
-        <v>7092627.4653712129</v>
+        <v>7092306.296517713</v>
       </c>
       <c r="Z8" s="16">
-        <v>7092987.3054521102</v>
+        <v>7085690.8231411204</v>
       </c>
       <c r="AA8" s="16">
-        <v>6877563.7778141592</v>
-      </c>
-    </row>
-    <row r="9" ht="15.750000" customHeight="1">
+        <v>6874978.5434042402</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>6653000.1261757491</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>6441654.8227958791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="12">
         <v>1517958.9919441622</v>
@@ -1097,16 +1148,16 @@
         <v>2197398.3453816036</v>
       </c>
       <c r="T9" s="13">
-        <v>2272432.3398925886</v>
+        <v>2272432.3847389454</v>
       </c>
       <c r="U9" s="13">
-        <v>2359639.1154876812</v>
+        <v>2359639.0897134063</v>
       </c>
       <c r="V9" s="13">
-        <v>2526413.7077852422</v>
+        <v>2526413.7068071719</v>
       </c>
       <c r="W9" s="13">
-        <v>2404795.3798948838</v>
+        <v>2404795.3624180621</v>
       </c>
       <c r="X9" s="13">
         <v>2458880.6709457026</v>
@@ -1115,16 +1166,22 @@
         <v>2456727.4838847443</v>
       </c>
       <c r="Z9" s="13">
-        <v>2480554.5408801427</v>
+        <v>2481340.1329789707</v>
       </c>
       <c r="AA9" s="13">
-        <v>2342905.0096729016</v>
-      </c>
-    </row>
-    <row r="10" ht="15.750000" customHeight="1">
+        <v>2342148.9301632009</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>2207842.7475213292</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>2117936.8847963042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -1190,16 +1247,22 @@
         <v>321264.55394193064</v>
       </c>
       <c r="Z10" s="16">
-        <v>337229.09812654956</v>
+        <v>337259.79390245292</v>
       </c>
       <c r="AA10" s="16">
-        <v>336386.30815765128</v>
-      </c>
-    </row>
-    <row r="11" ht="15.750000" customHeight="1">
+        <v>335709.55612210522</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>319415.90295850125</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>297793.38347396959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="12">
         <v>284140.58226172172</v>
@@ -1253,16 +1316,16 @@
         <v>644366.45260684472</v>
       </c>
       <c r="T11" s="13">
-        <v>643699.41572160157</v>
+        <v>643699.3733734152</v>
       </c>
       <c r="U11" s="13">
-        <v>668187.23572703858</v>
+        <v>668187.22103078477</v>
       </c>
       <c r="V11" s="13">
-        <v>715347.57997264026</v>
+        <v>715347.56402647914</v>
       </c>
       <c r="W11" s="13">
-        <v>686295.29600911064</v>
+        <v>686295.31144279323</v>
       </c>
       <c r="X11" s="13">
         <v>672197.70708566555</v>
@@ -1271,16 +1334,22 @@
         <v>679680.78377089952</v>
       </c>
       <c r="Z11" s="13">
-        <v>664583.7660971405</v>
+        <v>665103.08142182184</v>
       </c>
       <c r="AA11" s="13">
-        <v>625675.78759749071</v>
-      </c>
-    </row>
-    <row r="12" ht="15.750000" customHeight="1">
+        <v>630052.23590088275</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>577447.83623198047</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>566427.88378090248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="15">
         <v>361235.5460360357</v>
@@ -1334,16 +1403,16 @@
         <v>486044.64582967805</v>
       </c>
       <c r="T12" s="16">
-        <v>504356.14686813927</v>
+        <v>504356.13533248915</v>
       </c>
       <c r="U12" s="16">
-        <v>523642.41144927533</v>
+        <v>523642.41326362855</v>
       </c>
       <c r="V12" s="16">
-        <v>561388.05321652966</v>
+        <v>561388.02818687831</v>
       </c>
       <c r="W12" s="16">
-        <v>554281.23622337903</v>
+        <v>554281.18885032542</v>
       </c>
       <c r="X12" s="16">
         <v>560903.23132920847</v>
@@ -1352,16 +1421,22 @@
         <v>558599.83062431798</v>
       </c>
       <c r="Z12" s="16">
-        <v>578770.4553299963</v>
+        <v>579381.72648676997</v>
       </c>
       <c r="AA12" s="16">
-        <v>580620.46943411476</v>
-      </c>
-    </row>
-    <row r="13" ht="15.750000" customHeight="1">
+        <v>571969.73096738895</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>541687.62355676503</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>497333.3017741061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="12">
         <v>133669.61936668589</v>
@@ -1433,16 +1508,22 @@
         <v>214239.36766996325</v>
       </c>
       <c r="Z13" s="13">
-        <v>221300.70598330133</v>
+        <v>221321.09807841523</v>
       </c>
       <c r="AA13" s="13">
-        <v>225484.07944294924</v>
-      </c>
-    </row>
-    <row r="14" ht="15.750000" customHeight="1">
+        <v>222332.70817373594</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>209982.56856987174</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>206258.60815757402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="15">
         <v>140377.59167741303</v>
@@ -1496,16 +1577,16 @@
         <v>195267.74826364394</v>
       </c>
       <c r="T14" s="16">
-        <v>215466.64767705885</v>
+        <v>215466.66108141979</v>
       </c>
       <c r="U14" s="16">
-        <v>231102.89492226604</v>
+        <v>231102.93147384614</v>
       </c>
       <c r="V14" s="16">
-        <v>246567.12297935528</v>
+        <v>246567.15539141567</v>
       </c>
       <c r="W14" s="16">
-        <v>250007.18300310968</v>
+        <v>250007.15957138879</v>
       </c>
       <c r="X14" s="16">
         <v>270007.45967598457</v>
@@ -1514,16 +1595,22 @@
         <v>264266.13850374072</v>
       </c>
       <c r="Z14" s="16">
-        <v>286903.99543059675</v>
+        <v>286931.9973172567</v>
       </c>
       <c r="AA14" s="16">
-        <v>287336.88370940136</v>
-      </c>
-    </row>
-    <row r="15" ht="15.750000" customHeight="1">
+        <v>287318.42919929133</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>277825.56390565366</v>
+      </c>
+      <c r="AC14" s="16">
+        <v>264153.91763496562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="12">
         <v>14817.730513948265</v>
@@ -1577,16 +1664,16 @@
         <v>15589.62393888031</v>
       </c>
       <c r="T15" s="13">
-        <v>17219.459680220967</v>
+        <v>17219.466828367171</v>
       </c>
       <c r="U15" s="13">
-        <v>19300.444627930126</v>
+        <v>19300.43341038662</v>
       </c>
       <c r="V15" s="13">
-        <v>20738.323775220182</v>
+        <v>20738.349094606052</v>
       </c>
       <c r="W15" s="13">
-        <v>19443.60206916793</v>
+        <v>19443.618325228792</v>
       </c>
       <c r="X15" s="13">
         <v>23130.550308588383</v>
@@ -1595,16 +1682,22 @@
         <v>23768.048291318406</v>
       </c>
       <c r="Z15" s="13">
-        <v>21195.880877658736</v>
+        <v>20788.753830221412</v>
       </c>
       <c r="AA15" s="13">
-        <v>26312.365682286872</v>
-      </c>
-    </row>
-    <row r="16" ht="15.750000" customHeight="1">
+        <v>29479.209455273474</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>27924.914761265783</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>25043.458505160059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="15">
         <v>228997.82407870842</v>
@@ -1658,16 +1751,16 @@
         <v>246406.07431818571</v>
       </c>
       <c r="T16" s="16">
-        <v>278660.49914943363</v>
+        <v>278660.54064911068</v>
       </c>
       <c r="U16" s="16">
-        <v>283154.1207314643</v>
+        <v>283154.07274691854</v>
       </c>
       <c r="V16" s="16">
-        <v>314627.30932405364</v>
+        <v>314627.32190377085</v>
       </c>
       <c r="W16" s="16">
-        <v>335819.9705784641</v>
+        <v>335819.99008956621</v>
       </c>
       <c r="X16" s="16">
         <v>357572.24793263536</v>
@@ -1676,178 +1769,196 @@
         <v>359359.16043255979</v>
       </c>
       <c r="Z16" s="16">
-        <v>366884.35020915844</v>
+        <v>370310.59134371317</v>
       </c>
       <c r="AA16" s="16">
-        <v>377372.85129409021</v>
-      </c>
-    </row>
-    <row r="17" ht="15.750000" customHeight="1">
+        <v>386075.50760085764</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>357319.34393236967</v>
+      </c>
+      <c r="AC16" s="16">
+        <v>356468.52301223367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="12">
-        <v>3167592.0306432205</v>
+        <v>3167530.0843973476</v>
       </c>
       <c r="D17" s="13">
-        <v>2920084.1054073214</v>
+        <v>2919965.4157716944</v>
       </c>
       <c r="E17" s="13">
-        <v>2649091.1365025956</v>
+        <v>2648971.5270545431</v>
       </c>
       <c r="F17" s="13">
-        <v>2302802.1967076445</v>
+        <v>2302665.661613795</v>
       </c>
       <c r="G17" s="13">
-        <v>2075620.0008093007</v>
+        <v>2075508.1676340429</v>
       </c>
       <c r="H17" s="13">
-        <v>1872256.0955823164</v>
+        <v>1872144.2303896367</v>
       </c>
       <c r="I17" s="13">
-        <v>1661202.1502113731</v>
+        <v>1661086.1099164044</v>
       </c>
       <c r="J17" s="13">
-        <v>1439626.541902248</v>
+        <v>1439626.7006269784</v>
       </c>
       <c r="K17" s="13">
-        <v>1213877.0601183828</v>
+        <v>1213757.5733376914</v>
       </c>
       <c r="L17" s="13">
         <v>966044.71119621489</v>
       </c>
       <c r="M17" s="13">
-        <v>700515.4304345391</v>
+        <v>700373.04743452731</v>
       </c>
       <c r="N17" s="13">
-        <v>706529.75461907033</v>
+        <v>706377.69872466987</v>
       </c>
       <c r="O17" s="13">
-        <v>715591.35433552344</v>
+        <v>715479.93266205862</v>
       </c>
       <c r="P17" s="13">
-        <v>718875.87699925003</v>
+        <v>719049.01091922459</v>
       </c>
       <c r="Q17" s="13">
-        <v>731834.40602615231</v>
+        <v>732108.04994612304</v>
       </c>
       <c r="R17" s="13">
-        <v>750764.66199747461</v>
+        <v>750766.51630380272</v>
       </c>
       <c r="S17" s="13">
-        <v>755499.44111948239</v>
+        <v>755502.04930635158</v>
       </c>
       <c r="T17" s="13">
-        <v>754842.35404239839</v>
+        <v>754827.61270327144</v>
       </c>
       <c r="U17" s="13">
-        <v>788153.05571778514</v>
+        <v>788196.68270760158</v>
       </c>
       <c r="V17" s="13">
-        <v>837093.98405584379</v>
+        <v>836097.19807232427</v>
       </c>
       <c r="W17" s="13">
-        <v>848112.34403952933</v>
+        <v>845169.04433499998</v>
       </c>
       <c r="X17" s="13">
-        <v>862917.72276643559</v>
+        <v>857977.57454366016</v>
       </c>
       <c r="Y17" s="13">
-        <v>858266.3890277422</v>
+        <v>853671.33339791012</v>
       </c>
       <c r="Z17" s="13">
-        <v>870549.1246953262</v>
+        <v>870371.16534484178</v>
       </c>
       <c r="AA17" s="13">
-        <v>870463.80663540238</v>
-      </c>
-    </row>
-    <row r="18" ht="15.750000" customHeight="1">
+        <v>861918.4254131621</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>859998.26164496294</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>825558.6464044922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="15">
-        <v>71.022490169907854</v>
+        <v>71.022892650708812</v>
       </c>
       <c r="D18" s="16">
-        <v>73.391226126035406</v>
+        <v>73.39201988956259</v>
       </c>
       <c r="E18" s="16">
-        <v>75.918910796497428</v>
+        <v>75.91973626290428</v>
       </c>
       <c r="F18" s="16">
-        <v>78.519933518835472</v>
+        <v>78.520933538945528</v>
       </c>
       <c r="G18" s="16">
-        <v>80.97097118297097</v>
+        <v>80.971801364820067</v>
       </c>
       <c r="H18" s="16">
-        <v>83.175301818103392</v>
+        <v>83.176137951856134</v>
       </c>
       <c r="I18" s="16">
-        <v>85.302800142083541</v>
+        <v>85.303675909303806</v>
       </c>
       <c r="J18" s="16">
-        <v>87.42938674280974</v>
+        <v>87.429385531071958</v>
       </c>
       <c r="K18" s="16">
-        <v>89.547247842794278</v>
+        <v>89.548169209511968</v>
       </c>
       <c r="L18" s="16">
         <v>91.581937927525345</v>
       </c>
       <c r="M18" s="16">
-        <v>93.858177556225627</v>
+        <v>93.859349252986107</v>
       </c>
       <c r="N18" s="16">
-        <v>93.820125387671055</v>
+        <v>93.821373214308863</v>
       </c>
       <c r="O18" s="16">
-        <v>93.835219227187281</v>
+        <v>93.836119952299399</v>
       </c>
       <c r="P18" s="16">
-        <v>93.874441748519672</v>
+        <v>93.873056859773172</v>
       </c>
       <c r="Q18" s="16">
-        <v>93.720504190531216</v>
+        <v>93.718303686472311</v>
       </c>
       <c r="R18" s="16">
-        <v>93.649594070245328</v>
+        <v>93.649579381490682</v>
       </c>
       <c r="S18" s="16">
-        <v>93.543338170858505</v>
+        <v>93.543316764781821</v>
       </c>
       <c r="T18" s="16">
-        <v>93.716121949398243</v>
+        <v>93.716236467499499</v>
       </c>
       <c r="U18" s="16">
-        <v>93.564709039755954</v>
+        <v>93.56434443677955</v>
       </c>
       <c r="V18" s="16">
-        <v>93.409551004711048</v>
+        <v>93.416824176300011</v>
       </c>
       <c r="W18" s="16">
-        <v>93.257581120716566</v>
+        <v>93.279385511478225</v>
       </c>
       <c r="X18" s="16">
-        <v>93.263297014814725</v>
+        <v>93.299250097754765</v>
       </c>
       <c r="Y18" s="16">
-        <v>93.309846274715042</v>
+        <v>93.343113520333262</v>
       </c>
       <c r="Z18" s="16">
-        <v>93.262503892588882</v>
+        <v>93.262598431087795</v>
       </c>
       <c r="AA18" s="16">
-        <v>93.064100472878678</v>
-      </c>
-    </row>
-    <row r="19" ht="15.750000" customHeight="1">
+        <v>93.127734215409077</v>
+      </c>
+      <c r="AB18" s="16">
+        <v>92.852672340824967</v>
+      </c>
+      <c r="AC18" s="16">
+        <v>92.882274139690253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="12">
         <v>65.464575936244771</v>
@@ -1898,37 +2009,43 @@
         <v>60.74771626223292</v>
       </c>
       <c r="S19" s="13">
-        <v>61.853002115209542</v>
+        <v>61.852998608915186</v>
       </c>
       <c r="T19" s="13">
-        <v>61.307217195700048</v>
+        <v>61.307213514240352</v>
       </c>
       <c r="U19" s="13">
-        <v>60.451201127217672</v>
+        <v>60.450996004631243</v>
       </c>
       <c r="V19" s="13">
-        <v>58.923320967388278</v>
+        <v>58.922933921041256</v>
       </c>
       <c r="W19" s="13">
-        <v>59.432307091624615</v>
+        <v>59.432164817681475</v>
       </c>
       <c r="X19" s="13">
-        <v>59.184375795663115</v>
+        <v>59.184181063502741</v>
       </c>
       <c r="Y19" s="13">
-        <v>59.250724797481389</v>
+        <v>59.249631466940087</v>
       </c>
       <c r="Z19" s="13">
-        <v>58.860961971756808</v>
+        <v>58.811550010282566</v>
       </c>
       <c r="AA19" s="13">
-        <v>58.884978078311931</v>
-      </c>
-    </row>
-    <row r="20" ht="15.750000" customHeight="1">
+        <v>58.860790852743406</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>59.548282913541904</v>
+      </c>
+      <c r="AC19" s="13">
+        <v>59.794045281909106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="15">
         <v>19.552214991025181</v>
@@ -1979,37 +2096,43 @@
         <v>20.588446835182523</v>
       </c>
       <c r="S20" s="16">
-        <v>20.075659559590044</v>
+        <v>20.075661404851157</v>
       </c>
       <c r="T20" s="16">
-        <v>20.185901062683175</v>
+        <v>20.185903135975771</v>
       </c>
       <c r="U20" s="16">
-        <v>20.591649593732335</v>
+        <v>20.591756447383549</v>
       </c>
       <c r="V20" s="16">
-        <v>21.293839044914591</v>
+        <v>21.29403955466173</v>
       </c>
       <c r="W20" s="16">
-        <v>20.500116441351825</v>
+        <v>20.500188347550136</v>
       </c>
       <c r="X20" s="16">
-        <v>20.58281165563745</v>
+        <v>20.582909856644012</v>
       </c>
       <c r="Y20" s="16">
-        <v>20.523125563940138</v>
+        <v>20.523676213242993</v>
       </c>
       <c r="Z20" s="16">
-        <v>20.584814297832459</v>
+        <v>20.595233826265343</v>
       </c>
       <c r="AA20" s="16">
-        <v>20.059706400571297</v>
-      </c>
-    </row>
-    <row r="21" ht="15.750000" customHeight="1">
+        <v>20.052533612133903</v>
+      </c>
+      <c r="AB20" s="16">
+        <v>19.761497379316104</v>
+      </c>
+      <c r="AC20" s="16">
+        <v>19.65954672789654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
@@ -2054,37 +2177,43 @@
         <v>1.9370453587069225</v>
       </c>
       <c r="S21" s="13">
-        <v>2.0129733726545043</v>
+        <v>2.0129735576776402</v>
       </c>
       <c r="T21" s="13">
-        <v>2.0757491168712168</v>
+        <v>2.0757492891064495</v>
       </c>
       <c r="U21" s="13">
-        <v>2.1593505899937693</v>
+        <v>2.1593618188262047</v>
       </c>
       <c r="V21" s="13">
-        <v>2.2891911643032512</v>
+        <v>2.2892127209615882</v>
       </c>
       <c r="W21" s="13">
-        <v>2.500441953461356</v>
+        <v>2.5004507421823132</v>
       </c>
       <c r="X21" s="13">
-        <v>2.6352432028466755</v>
+        <v>2.6352557756447648</v>
       </c>
       <c r="Y21" s="13">
-        <v>2.68379493576048</v>
+        <v>2.6838669437889733</v>
       </c>
       <c r="Z21" s="13">
-        <v>2.7984864861296197</v>
+        <v>2.7992713386214128</v>
       </c>
       <c r="AA21" s="13">
-        <v>2.8801042086450894</v>
-      </c>
-    </row>
-    <row r="22" ht="15.750000" customHeight="1">
+        <v>2.8742096932256112</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>2.8589610996130643</v>
+      </c>
+      <c r="AC21" s="13">
+        <v>2.7642386228275084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="15">
         <v>3.6598997611528494</v>
@@ -2135,37 +2264,43 @@
         <v>5.8687635583353002</v>
       </c>
       <c r="S22" s="16">
-        <v>5.8869988508657167</v>
+        <v>5.8869993919712291</v>
       </c>
       <c r="T22" s="16">
-        <v>5.7179492175671944</v>
+        <v>5.7179493158370729</v>
       </c>
       <c r="U22" s="16">
-        <v>5.8310092127168911</v>
+        <v>5.8310394062810254</v>
       </c>
       <c r="V22" s="16">
-        <v>6.0292960658688015</v>
+        <v>6.0293527076218449</v>
       </c>
       <c r="W22" s="16">
-        <v>5.8504493143003966</v>
+        <v>5.8504700094194462</v>
       </c>
       <c r="X22" s="16">
-        <v>5.6268362120127984</v>
+        <v>5.6268630577610379</v>
       </c>
       <c r="Y22" s="16">
-        <v>5.6779492883231955</v>
+        <v>5.6781016315326891</v>
       </c>
       <c r="Z22" s="16">
-        <v>5.515030282547122</v>
+        <v>5.520385254079196</v>
       </c>
       <c r="AA22" s="16">
-        <v>5.3569703207489967</v>
-      </c>
-    </row>
-    <row r="23" ht="15.750000" customHeight="1">
+        <v>5.3942528910500238</v>
+      </c>
+      <c r="AB22" s="16">
+        <v>5.1684993938997899</v>
+      </c>
+      <c r="AC22" s="16">
+        <v>5.2578126992888174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="12">
         <v>4.6529287655201381</v>
@@ -2216,37 +2351,43 @@
         <v>4.6381808262888251</v>
       </c>
       <c r="S23" s="13">
-        <v>4.4405543769277767</v>
+        <v>4.44055478508285</v>
       </c>
       <c r="T23" s="13">
-        <v>4.48017003732555</v>
+        <v>4.480170306596948</v>
       </c>
       <c r="U23" s="13">
-        <v>4.5696229470886571</v>
+        <v>4.5696467254042803</v>
       </c>
       <c r="V23" s="13">
-        <v>4.7316505646298888</v>
+        <v>4.7316949102656789</v>
       </c>
       <c r="W23" s="13">
-        <v>4.7250714047580997</v>
+        <v>4.7250876089141007</v>
       </c>
       <c r="X23" s="13">
-        <v>4.6952118107656151</v>
+        <v>4.6952342117151806</v>
       </c>
       <c r="Y23" s="13">
-        <v>4.6664575290095174</v>
+        <v>4.6665827332128016</v>
       </c>
       <c r="Z23" s="13">
-        <v>4.8029108603323296</v>
+        <v>4.80889418305373</v>
       </c>
       <c r="AA23" s="13">
-        <v>4.9712114229660127</v>
-      </c>
-    </row>
-    <row r="24" ht="15.750000" customHeight="1">
+        <v>4.8969739317762171</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>4.8484243569170085</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>4.6164488449840952</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="15">
         <v>1.7217442299140084</v>
@@ -2297,37 +2438,43 @@
         <v>1.6969776930971543</v>
       </c>
       <c r="S24" s="16">
-        <v>1.553205374639133</v>
+        <v>1.5532055174025359</v>
       </c>
       <c r="T24" s="16">
-        <v>1.6907474345901663</v>
+        <v>1.6907475748798937</v>
       </c>
       <c r="U24" s="16">
-        <v>1.7410188208452753</v>
+        <v>1.7410278743119501</v>
       </c>
       <c r="V24" s="16">
-        <v>1.8278909164535284</v>
+        <v>1.8279081291793933</v>
       </c>
       <c r="W24" s="16">
-        <v>1.831872939575915</v>
+        <v>1.8318793783656953</v>
       </c>
       <c r="X24" s="16">
-        <v>1.8285523670940833</v>
+        <v>1.8285610911540418</v>
       </c>
       <c r="Y24" s="16">
-        <v>1.7897229026302819</v>
+        <v>1.7897709221030258</v>
       </c>
       <c r="Z24" s="16">
-        <v>1.836457881320817</v>
+        <v>1.836974989856982</v>
       </c>
       <c r="AA24" s="16">
-        <v>1.9305709847195824</v>
-      </c>
-    </row>
-    <row r="25" ht="15.750000" customHeight="1">
+        <v>1.9035228914413826</v>
+      </c>
+      <c r="AB24" s="16">
+        <v>1.8794680840173816</v>
+      </c>
+      <c r="AC24" s="16">
+        <v>1.914575818672104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" s="12">
         <v>1.8081469044719027</v>
@@ -2378,37 +2525,43 @@
         <v>1.8605244300558705</v>
       </c>
       <c r="S25" s="13">
-        <v>1.7839864334783917</v>
+        <v>1.7839865974541145</v>
       </c>
       <c r="T25" s="13">
-        <v>1.9139792881678084</v>
+        <v>1.913979566050461</v>
       </c>
       <c r="U25" s="13">
-        <v>2.0167447645285019</v>
+        <v>2.0167555707698499</v>
       </c>
       <c r="V25" s="13">
-        <v>2.0781872004220303</v>
+        <v>2.0782070433035251</v>
       </c>
       <c r="W25" s="13">
-        <v>2.1312317902748674</v>
+        <v>2.1312390815225224</v>
       </c>
       <c r="X25" s="13">
-        <v>2.2601799077913189</v>
+        <v>2.260190691154917</v>
       </c>
       <c r="Y25" s="13">
-        <v>2.2076388929527315</v>
+        <v>2.2076981253934029</v>
       </c>
       <c r="Z25" s="13">
-        <v>2.3808649920471034</v>
+        <v>2.3815483812336842</v>
       </c>
       <c r="AA25" s="13">
-        <v>2.4601481927218214</v>
-      </c>
-    </row>
-    <row r="26" ht="15.750000" customHeight="1">
+        <v>2.4599044000600103</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>2.4867029860674235</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>2.4519834960053593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C26" s="15">
         <v>0.19086118546372943</v>
@@ -2459,37 +2612,43 @@
         <v>0.1496123196328156</v>
       </c>
       <c r="S26" s="16">
-        <v>0.14242842382983822</v>
+        <v>0.1424284369211955</v>
       </c>
       <c r="T26" s="16">
-        <v>0.15295958579529462</v>
+        <v>0.15295966198373756</v>
       </c>
       <c r="U26" s="16">
-        <v>0.16842744730455611</v>
+        <v>0.16842822525197954</v>
       </c>
       <c r="V26" s="16">
-        <v>0.17479264269745728</v>
+        <v>0.17479450207583516</v>
       </c>
       <c r="W26" s="16">
-        <v>0.16575052904279736</v>
+        <v>0.16575125021210566</v>
       </c>
       <c r="X26" s="16">
-        <v>0.19362133596739903</v>
+        <v>0.19362225973867003</v>
       </c>
       <c r="Y26" s="16">
-        <v>0.1985546393290584</v>
+        <v>0.19855996668396758</v>
       </c>
       <c r="Z26" s="16">
-        <v>0.17589344017840944</v>
+        <v>0.17254758442812315</v>
       </c>
       <c r="AA26" s="16">
-        <v>0.22528370894765065</v>
-      </c>
-    </row>
-    <row r="27" ht="15.750000" customHeight="1">
+        <v>0.25238909056898307</v>
+      </c>
+      <c r="AB26" s="16">
+        <v>0.24994449015533804</v>
+      </c>
+      <c r="AC26" s="16">
+        <v>0.23246351024180026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27" s="12">
         <v>2.9496282262074249</v>
@@ -2540,115 +2699,127 @@
         <v>2.5127327164676707</v>
       </c>
       <c r="S27" s="13">
-        <v>2.2511914928050416</v>
+        <v>2.2511916997240768</v>
       </c>
       <c r="T27" s="13">
-        <v>2.4753270612995482</v>
+        <v>2.4753276353293048</v>
       </c>
       <c r="U27" s="13">
-        <v>2.4709754965723412</v>
+        <v>2.4709879271399249</v>
       </c>
       <c r="V27" s="13">
-        <v>2.6518314333221848</v>
+        <v>2.6518565108891483</v>
       </c>
       <c r="W27" s="13">
-        <v>2.8627585356101193</v>
+        <v>2.8627687641522126</v>
       </c>
       <c r="X27" s="13">
-        <v>2.9931677122215472</v>
+        <v>2.9931819926846379</v>
       </c>
       <c r="Y27" s="13">
-        <v>3.0020314505731864</v>
+        <v>3.0021119971020407</v>
       </c>
       <c r="Z27" s="13">
-        <v>3.0445797878553367</v>
+        <v>3.0735944321789601</v>
       </c>
       <c r="AA27" s="13">
-        <v>3.2310266823676157</v>
-      </c>
-    </row>
-    <row r="28" ht="15.750000" customHeight="1">
+        <v>3.3054226370004609</v>
+      </c>
+      <c r="AB27" s="13">
+        <v>3.1982192964720007</v>
+      </c>
+      <c r="AC27" s="13">
+        <v>3.3088849981746633</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C28" s="15">
-        <v>28.977509830092156</v>
+        <v>28.977107349291181</v>
       </c>
       <c r="D28" s="16">
-        <v>26.608773873964591</v>
+        <v>26.607980110437413</v>
       </c>
       <c r="E28" s="16">
-        <v>24.081089203502572</v>
+        <v>24.080263737095724</v>
       </c>
       <c r="F28" s="16">
-        <v>21.480066481164531</v>
+        <v>21.479066461054479</v>
       </c>
       <c r="G28" s="16">
-        <v>19.02902881702903</v>
+        <v>19.028198635179926</v>
       </c>
       <c r="H28" s="16">
-        <v>16.824698181896604</v>
+        <v>16.823862048143866</v>
       </c>
       <c r="I28" s="16">
-        <v>14.697199857916459</v>
+        <v>14.696324090696203</v>
       </c>
       <c r="J28" s="16">
-        <v>12.570613257190269</v>
+        <v>12.57061446892804</v>
       </c>
       <c r="K28" s="16">
-        <v>10.452752157205722</v>
+        <v>10.451830790488041</v>
       </c>
       <c r="L28" s="16">
         <v>8.4180620724746582</v>
       </c>
       <c r="M28" s="16">
-        <v>6.141822443774374</v>
+        <v>6.1406507470138942</v>
       </c>
       <c r="N28" s="16">
-        <v>6.1798746123289527</v>
+        <v>6.1786267856911277</v>
       </c>
       <c r="O28" s="16">
-        <v>6.1647807728127209</v>
+        <v>6.1638800477006033</v>
       </c>
       <c r="P28" s="16">
-        <v>6.1255582514803377</v>
+        <v>6.1269431402268264</v>
       </c>
       <c r="Q28" s="16">
-        <v>6.2794958094687825</v>
+        <v>6.2816963135276893</v>
       </c>
       <c r="R28" s="16">
-        <v>6.3504059297546798</v>
+        <v>6.3504206185093084</v>
       </c>
       <c r="S28" s="16">
-        <v>6.4566618291414999</v>
+        <v>6.4566832352181773</v>
       </c>
       <c r="T28" s="16">
-        <v>6.2838780506017562</v>
+        <v>6.2837635325005063</v>
       </c>
       <c r="U28" s="16">
-        <v>6.4352909602440445</v>
+        <v>6.4356555632204531</v>
       </c>
       <c r="V28" s="16">
-        <v>6.5904489952889573</v>
+        <v>6.5831758236999844</v>
       </c>
       <c r="W28" s="16">
-        <v>6.7424188792834387</v>
+        <v>6.7206144885217673</v>
       </c>
       <c r="X28" s="16">
-        <v>6.7367029851852696</v>
+        <v>6.7007499022452288</v>
       </c>
       <c r="Y28" s="16">
-        <v>6.6901537252849517</v>
+        <v>6.6568864796667295</v>
       </c>
       <c r="Z28" s="16">
-        <v>6.7374961074111175</v>
+        <v>6.7374015689122002</v>
       </c>
       <c r="AA28" s="16">
-        <v>6.9358995271213235</v>
-      </c>
-    </row>
-    <row r="29" ht="13.500000" customHeight="1">
+        <v>6.8722657845909207</v>
+      </c>
+      <c r="AB28" s="16">
+        <v>7.1473276591750432</v>
+      </c>
+      <c r="AC28" s="16">
+        <v>7.1177258603097382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2676,18 +2847,20 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
-    </row>
-    <row r="30" ht="15.750000" customHeight="1">
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="B30" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
@@ -2707,17 +2880,19 @@
       <c r="Y30" s="18"/>
       <c r="Z30" s="18"/>
       <c r="AA30" s="18"/>
-    </row>
-    <row r="31" ht="15.750000" customHeight="1">
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+    </row>
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+      <c r="B31" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
@@ -2738,6 +2913,8 @@
       <c r="Y31" s="19"/>
       <c r="Z31" s="19"/>
       <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2745,7 +2922,8 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B31:G31"/>
   </mergeCells>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.39" footer="0.39"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="0" fitToHeight="0" pageOrder="downThenOver" orientation="portrait"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.39" footer="0.39"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>